--- a/output/google_maps_data_Kantor_Polisi_Kota_Yogyakarta.xlsx
+++ b/output/google_maps_data_Kantor_Polisi_Kota_Yogyakarta.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K49"/>
+  <dimension ref="A1:J49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,35 +456,30 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>reviews_count</t>
+          <t>reviews_average</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>reviews_average</t>
+          <t>latitude</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>latitude</t>
+          <t>longitude</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>longitude</t>
+          <t>is_permanently_closed</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>is_permanently_closed</t>
+          <t>gmaps_link</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>gmaps_link</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>latest_review_date</t>
         </is>
@@ -507,25 +502,24 @@
           <t>(0274) 512940</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr"/>
+      <c r="E2" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F2" t="n">
-        <v>4.4</v>
+        <v>-7.799503</v>
       </c>
       <c r="G2" t="n">
-        <v>-7.799503</v>
-      </c>
-      <c r="H2" t="n">
         <v>110.362662</v>
       </c>
-      <c r="I2" t="b">
-        <v>0</v>
+      <c r="H2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Kantor+Kepolisian+Kota+Besar+Yogyakarta/@-7.7995031,110.2905645,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Kota+Yogyakarta!3m6!1s0x2e7a578911c79add:0x7d0f4b41e809c820!8m2!3d-7.7995031!4d110.3626623!15sCh1LYW50b3IgUG9saXNpIEtvdGEgWW9neWFrYXJ0YeABAA!16s%2Fg%2F11b6dp81gf?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J2" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Kantor+Kepolisian+Kota+Besar+Yogyakarta/@-7.7995031,110.2905645,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Kota+Yogyakarta!3m6!1s0x2e7a578911c79add:0x7d0f4b41e809c820!8m2!3d-7.7995031!4d110.3626623!15sCh1LYW50b3IgUG9saXNpIEtvdGEgWW9neWFrYXJ0YeABAA!16s%2Fg%2F11b6dp81gf?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
         <is>
           <t>6 tahun lalu</t>
         </is>
@@ -553,22 +547,21 @@
         </is>
       </c>
       <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
+      <c r="F3" t="n">
+        <v>-7.799455</v>
+      </c>
       <c r="G3" t="n">
-        <v>-7.799455</v>
-      </c>
-      <c r="H3" t="n">
         <v>110.362605</v>
       </c>
-      <c r="I3" t="b">
-        <v>0</v>
-      </c>
-      <c r="J3" t="inlineStr">
+      <c r="H3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Polresta+Yogyakarta/@-7.7995031,110.2905645,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Kota+Yogyakarta!3m6!1s0x2e7a5789121ec1bb:0x80385781dba92dd7!8m2!3d-7.7994546!4d110.3626046!15sCh1LYW50b3IgUG9saXNpIEtvdGEgWW9neWFrYXJ0YZIBDGNpdmlsX3BvbGljZeABAA!16s%2Fg%2F1hm1wzz9s?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -592,22 +585,21 @@
         </is>
       </c>
       <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
+      <c r="F4" t="n">
+        <v>-7.803828</v>
+      </c>
       <c r="G4" t="n">
-        <v>-7.803828</v>
-      </c>
-      <c r="H4" t="n">
         <v>110.370111</v>
       </c>
-      <c r="I4" t="b">
-        <v>0</v>
-      </c>
-      <c r="J4" t="inlineStr">
+      <c r="H4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Polsek+Gondomanan/@-7.7995031,110.2905645,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Kota+Yogyakarta!3m6!1s0x2e7a5784fbfea4a3:0xc569b3f8dddbadb6!8m2!3d-7.8038275!4d110.3701109!15sCh1LYW50b3IgUG9saXNpIEtvdGEgWW9neWFrYXJ0YZIBDnBvbGljZV9zdGF0aW9u4AEA!16s%2Fg%2F1tqq0k8k?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -626,25 +618,24 @@
           <t>0819-9710-2007</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr"/>
+      <c r="E5" t="n">
+        <v>4.9</v>
+      </c>
       <c r="F5" t="n">
-        <v>4.9</v>
+        <v>-7.799647</v>
       </c>
       <c r="G5" t="n">
-        <v>-7.799647</v>
-      </c>
-      <c r="H5" t="n">
         <v>110.362429</v>
       </c>
-      <c r="I5" t="b">
-        <v>0</v>
+      <c r="H5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pelayanan+SKCK/@-7.7995031,110.2905645,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Kota+Yogyakarta!3m6!1s0x2e7a577355ceeda5:0x812009c899ba182d!8m2!3d-7.7996471!4d110.3624286!15sCh1LYW50b3IgUG9saXNpIEtvdGEgWW9neWFrYXJ0YVofIh1rYW50b3IgcG9saXNpIGtvdGEgeW9neWFrYXJ0YZIBEWdvdmVybm1lbnRfb2ZmaWNlmgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVU4xZUhCWU1ITkJSUkFC4AEA-gEECAAQRQ!16s%2Fg%2F11l_h62zxl?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J5" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pelayanan+SKCK/@-7.7995031,110.2905645,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Kota+Yogyakarta!3m6!1s0x2e7a577355ceeda5:0x812009c899ba182d!8m2!3d-7.7996471!4d110.3624286!15sCh1LYW50b3IgUG9saXNpIEtvdGEgWW9neWFrYXJ0YVofIh1rYW50b3IgcG9saXNpIGtvdGEgeW9neWFrYXJ0YZIBEWdvdmVybm1lbnRfb2ZmaWNlmgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVU4xZUhCWU1ITkJSUkFC4AEA-gEECAAQRQ!16s%2Fg%2F11l_h62zxl?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
         <is>
           <t>2 tahun lalu</t>
         </is>
@@ -672,22 +663,21 @@
         </is>
       </c>
       <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
+      <c r="F6" t="n">
+        <v>-7.797843</v>
+      </c>
       <c r="G6" t="n">
-        <v>-7.797843</v>
-      </c>
-      <c r="H6" t="n">
         <v>110.376579</v>
       </c>
-      <c r="I6" t="b">
-        <v>0</v>
-      </c>
-      <c r="J6" t="inlineStr">
+      <c r="H6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Polsek+Pakualaman/@-7.7995031,110.2905645,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Kota+Yogyakarta!3m6!1s0x2e7a57804a6e69a5:0xd5497043793affda!8m2!3d-7.7978432!4d110.3765788!15sCh1LYW50b3IgUG9saXNpIEtvdGEgWW9neWFrYXJ0YZIBDnBvbGljZV9zdGF0aW9u4AEA!16s%2Fg%2F1tjxnvwj?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -707,22 +697,21 @@
       </c>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
+      <c r="F7" t="n">
+        <v>-7.797476</v>
+      </c>
       <c r="G7" t="n">
-        <v>-7.797476</v>
-      </c>
-      <c r="H7" t="n">
         <v>110.360228</v>
       </c>
-      <c r="I7" t="b">
-        <v>0</v>
-      </c>
-      <c r="J7" t="inlineStr">
+      <c r="H7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Polri+Daerah+Istimewa+Yogyakarta,+%EA%A7%8B%EA%A6%A5%EA%A6%BA%EA%A6%B4%EA%A6%AD%EA%A7%80%EA%A6%AB%EA%A6%B6%EA%A6%A3%EA%A6%8C%EA%A6%AB%EA%A6%83%EA%A6%86%EA%A6%B1%EA%A7%80%EA%A6%A0%EA%A6%B6%EA%A6%A9%EA%A6%BA%EA%A6%AE%EA%A6%AA%EA%A6%BA%EA%A6%B4%EA%A6%92%EA%A6%BE%EA%A6%8F%EA%A6%82%EA%A6%A0/@-7.7995031,110.2905645,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Kota+Yogyakarta!3m6!1s0x2e7a578a18e45897:0xdd47126b57f15f3b!8m2!3d-7.7974765!4d110.3602279!15sCh1LYW50b3IgUG9saXNpIEtvdGEgWW9neWFrYXJ0YZIBBnBvbGljZeABAA!16s%2Fg%2F1hm3dc39s?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -746,22 +735,21 @@
         </is>
       </c>
       <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
+      <c r="F8" t="n">
+        <v>-7.816788</v>
+      </c>
       <c r="G8" t="n">
-        <v>-7.816788</v>
-      </c>
-      <c r="H8" t="n">
         <v>110.385797</v>
       </c>
-      <c r="I8" t="b">
-        <v>0</v>
-      </c>
-      <c r="J8" t="inlineStr">
+      <c r="H8" t="b">
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Polsek+Umbulharjo/@-7.7995031,110.2905645,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Kota+Yogyakarta!3m6!1s0x2e7a57a02a672205:0x90a8bda0957bcde7!8m2!3d-7.8167876!4d110.385797!15sCh1LYW50b3IgUG9saXNpIEtvdGEgWW9neWFrYXJ0YZIBDnBvbGljZV9zdGF0aW9u4AEA!16s%2Fg%2F1hm2y7dvc?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -785,22 +773,21 @@
         </is>
       </c>
       <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr"/>
+      <c r="F9" t="n">
+        <v>-7.814522</v>
+      </c>
       <c r="G9" t="n">
-        <v>-7.814522</v>
-      </c>
-      <c r="H9" t="n">
         <v>110.36288</v>
       </c>
-      <c r="I9" t="b">
-        <v>0</v>
-      </c>
-      <c r="J9" t="inlineStr">
+      <c r="H9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Polsek+Mantrijeron/@-7.7995031,110.2905645,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Kota+Yogyakarta!3m6!1s0x2e7a57965765d7fd:0xc99b2ab670364feb!8m2!3d-7.8145222!4d110.3628796!15sCh1LYW50b3IgUG9saXNpIEtvdGEgWW9neWFrYXJ0YZIBBnBvbGljZeABAA!16s%2Fg%2F1pzswms4m?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -824,22 +811,21 @@
         </is>
       </c>
       <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
+      <c r="F10" t="n">
+        <v>-7.818087</v>
+      </c>
       <c r="G10" t="n">
-        <v>-7.818087</v>
-      </c>
-      <c r="H10" t="n">
         <v>110.373395</v>
       </c>
-      <c r="I10" t="b">
-        <v>0</v>
-      </c>
-      <c r="J10" t="inlineStr">
+      <c r="H10" t="b">
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Polsek+Mergangsan/@-7.7995031,110.2905645,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Kota+Yogyakarta!3m6!1s0x2e7a57a1902789df:0x7bbcff60a2d241a4!8m2!3d-7.8180873!4d110.3733954!15sCh1LYW50b3IgUG9saXNpIEtvdGEgWW9neWFrYXJ0YZIBDnBvbGljZV9zdGF0aW9u4AEA!16s%2Fg%2F11bbx0swyj?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -863,22 +849,21 @@
         </is>
       </c>
       <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr"/>
+      <c r="F11" t="n">
+        <v>-7.788391</v>
+      </c>
       <c r="G11" t="n">
-        <v>-7.788391</v>
-      </c>
-      <c r="H11" t="n">
         <v>110.378041</v>
       </c>
-      <c r="I11" t="b">
-        <v>0</v>
-      </c>
-      <c r="J11" t="inlineStr">
+      <c r="H11" t="b">
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Polsek+Danurejan/@-7.7995031,110.2905645,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Kota+Yogyakarta!3m6!1s0x2e7a582cc91e9b39:0x9eca52988bea4085!8m2!3d-7.7883908!4d110.3780411!15sCh1LYW50b3IgUG9saXNpIEtvdGEgWW9neWFrYXJ0YZIBBnBvbGljZeABAA!16s%2Fg%2F1tx75td6?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -902,22 +887,21 @@
         </is>
       </c>
       <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr"/>
+      <c r="F12" t="n">
+        <v>-7.782606</v>
+      </c>
       <c r="G12" t="n">
-        <v>-7.782606</v>
-      </c>
-      <c r="H12" t="n">
         <v>110.37486</v>
       </c>
-      <c r="I12" t="b">
-        <v>0</v>
-      </c>
-      <c r="J12" t="inlineStr">
+      <c r="H12" t="b">
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Unit+Laka+Lantas+Polresta+Yogyakarta/@-7.7995031,110.2905645,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Kota+Yogyakarta!3m6!1s0x2e7a5833ad644ae7:0x44422233f4cf40de!8m2!3d-7.7826062!4d110.3748596!15sCh1LYW50b3IgUG9saXNpIEtvdGEgWW9neWFrYXJ0YZIBEXBvbGljZV9kZXBhcnRtZW504AEA!16s%2Fg%2F11bwc149ks?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -941,22 +925,21 @@
         </is>
       </c>
       <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr"/>
+      <c r="F13" t="n">
+        <v>-7.797624</v>
+      </c>
       <c r="G13" t="n">
-        <v>-7.797624</v>
-      </c>
-      <c r="H13" t="n">
         <v>110.359954</v>
       </c>
-      <c r="I13" t="b">
-        <v>0</v>
-      </c>
-      <c r="J13" t="inlineStr">
+      <c r="H13" t="b">
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Polsek+Ngampilan/@-7.7995031,110.2905645,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Kota+Yogyakarta!3m6!1s0x2e7a578a19f439a3:0x822005c8aeb1e415!8m2!3d-7.7976244!4d110.3599538!15sCh1LYW50b3IgUG9saXNpIEtvdGEgWW9neWFrYXJ0YZIBDGNpdmlsX3BvbGljZeABAA!16s%2Fg%2F1td7whkn?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -980,22 +963,21 @@
         </is>
       </c>
       <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr"/>
+      <c r="F14" t="n">
+        <v>-7.783032</v>
+      </c>
       <c r="G14" t="n">
-        <v>-7.783032</v>
-      </c>
-      <c r="H14" t="n">
         <v>110.359903</v>
       </c>
-      <c r="I14" t="b">
-        <v>0</v>
-      </c>
-      <c r="J14" t="inlineStr">
+      <c r="H14" t="b">
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Polsek+Jetis/@-7.7995031,110.2905645,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Kota+Yogyakarta!3m6!1s0x2e7a5840bfffffff:0x7fc5021ae8790f58!8m2!3d-7.7830317!4d110.3599025!15sCh1LYW50b3IgUG9saXNpIEtvdGEgWW9neWFrYXJ0YZIBBnBvbGljZeABAA!16s%2Fg%2F1pzpqljw9?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1011,22 +993,21 @@
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr"/>
+      <c r="F15" t="n">
+        <v>-7.813063</v>
+      </c>
       <c r="G15" t="n">
-        <v>-7.813063</v>
-      </c>
-      <c r="H15" t="n">
         <v>110.355804</v>
       </c>
-      <c r="I15" t="b">
-        <v>0</v>
-      </c>
-      <c r="J15" t="inlineStr">
+      <c r="H15" t="b">
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Pos+Polisi+Pojok+Beteng+Kulon/@-7.7995031,110.2905645,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Kota+Yogyakarta!3m6!1s0x2e7a5794beb8f4d1:0xf5dc89f763b359a1!8m2!3d-7.8130626!4d110.3558035!15sCh1LYW50b3IgUG9saXNpIEtvdGEgWW9neWFrYXJ0YZIBFnRyYWZmaWNfcG9saWNlX3N0YXRpb27gAQA!16s%2Fg%2F11f_4s5vrz?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1050,22 +1031,21 @@
         </is>
       </c>
       <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr"/>
+      <c r="F16" t="n">
+        <v>-7.77221</v>
+      </c>
       <c r="G16" t="n">
-        <v>-7.77221</v>
-      </c>
-      <c r="H16" t="n">
         <v>110.361511</v>
       </c>
-      <c r="I16" t="b">
-        <v>0</v>
-      </c>
-      <c r="J16" t="inlineStr">
+      <c r="H16" t="b">
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Polsek+Tegalrejo/@-7.7995031,110.2905645,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Kota+Yogyakarta!3m6!1s0x2e7a5838ca072237:0xef87691426c806d5!8m2!3d-7.7722103!4d110.3615107!15sCh1LYW50b3IgUG9saXNpIEtvdGEgWW9neWFrYXJ0YZIBDnBvbGljZV9zdGF0aW9u4AEA!16s%2Fg%2F1hm1v97ml?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1085,22 +1065,21 @@
         </is>
       </c>
       <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr"/>
+      <c r="F17" t="n">
+        <v>-7.782408</v>
+      </c>
       <c r="G17" t="n">
-        <v>-7.782408</v>
-      </c>
-      <c r="H17" t="n">
         <v>110.375449</v>
       </c>
-      <c r="I17" t="b">
-        <v>0</v>
-      </c>
-      <c r="J17" t="inlineStr">
+      <c r="H17" t="b">
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Kepolisian+Kota+Besar+Yogyakarta+Satuan+Lalulintas/@-7.7995031,110.2905645,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Kota+Yogyakarta!3m6!1s0x2e7a5833aa506865:0xf841f9cddfc9b6f7!8m2!3d-7.7824077!4d110.3754485!15sCh1LYW50b3IgUG9saXNpIEtvdGEgWW9neWFrYXJ0YZIBBnBvbGljZeABAA!16s%2Fg%2F1hm6fk4x6?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1124,22 +1103,21 @@
         </is>
       </c>
       <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr"/>
+      <c r="F18" t="n">
+        <v>-7.808902</v>
+      </c>
       <c r="G18" t="n">
-        <v>-7.808902</v>
-      </c>
-      <c r="H18" t="n">
         <v>110.365129</v>
       </c>
-      <c r="I18" t="b">
-        <v>0</v>
-      </c>
-      <c r="J18" t="inlineStr">
+      <c r="H18" t="b">
+        <v>0</v>
+      </c>
+      <c r="I18" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Polsek+Kraton(%EA%A6%A5%EA%A6%BA%EA%A6%B4%EA%A6%AD%EA%A7%80%EA%A6%B1%EA%A6%BA%EA%A6%8F%EA%A7%80%EA%A6%8F%EA%A6%BF%EA%A6%A0%EA%A6%BA%EA%A6%B4%EA%A6%A4%EA%A7%80)/@-7.7995031,110.2905645,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Kota+Yogyakarta!3m6!1s0x2e7a5792f03b6be7:0x9a18b6c735e12d83!8m2!3d-7.8089016!4d110.3651285!15sCh1LYW50b3IgUG9saXNpIEtvdGEgWW9neWFrYXJ0YZIBBnBvbGljZeABAA!16s%2Fg%2F1tdsmd43?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1155,22 +1133,21 @@
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr"/>
+      <c r="F19" t="n">
+        <v>-7.801605</v>
+      </c>
       <c r="G19" t="n">
-        <v>-7.801605</v>
-      </c>
-      <c r="H19" t="n">
         <v>110.364828</v>
       </c>
-      <c r="I19" t="b">
-        <v>0</v>
-      </c>
-      <c r="J19" t="inlineStr">
+      <c r="H19" t="b">
+        <v>0</v>
+      </c>
+      <c r="I19" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Pos+Polisi+Lalu+Lintas+Km+0/@-7.7995031,110.2905645,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Kota+Yogyakarta!3m6!1s0x2e7a578f34120563:0x44ba183d5eb50803!8m2!3d-7.8016052!4d110.3648282!15sCh1LYW50b3IgUG9saXNpIEtvdGEgWW9neWFrYXJ0YZIBFnRyYWZmaWNfcG9saWNlX3N0YXRpb27gAQA!16s%2Fg%2F11fz7jztwp?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1194,22 +1171,21 @@
         </is>
       </c>
       <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr"/>
+      <c r="F20" t="n">
+        <v>-7.789446</v>
+      </c>
       <c r="G20" t="n">
-        <v>-7.789446</v>
-      </c>
-      <c r="H20" t="n">
         <v>110.361225</v>
       </c>
-      <c r="I20" t="b">
-        <v>0</v>
-      </c>
-      <c r="J20" t="inlineStr">
+      <c r="H20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Polsek+Gedongtengen/@-7.7995031,110.2905645,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Kota+Yogyakarta!3m6!1s0x2e7a5825fc9be1bf:0x8aaab7396fe34c26!8m2!3d-7.7894463!4d110.3612247!15sCh1LYW50b3IgUG9saXNpIEtvdGEgWW9neWFrYXJ0YZIBDnBvbGljZV9zdGF0aW9u4AEA!16s%2Fg%2F1tgl6bk0?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1233,22 +1209,21 @@
         </is>
       </c>
       <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr"/>
+      <c r="F21" t="n">
+        <v>-7.822656</v>
+      </c>
       <c r="G21" t="n">
-        <v>-7.822656</v>
-      </c>
-      <c r="H21" t="n">
         <v>110.39897</v>
       </c>
-      <c r="I21" t="b">
-        <v>0</v>
-      </c>
-      <c r="J21" t="inlineStr">
+      <c r="H21" t="b">
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Polsek+Kotagede/@-7.8226561,110.3268718,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Kota+Yogyakarta!3m6!1s0x2e7a5716131e9a83:0x8425fe94d512223c!8m2!3d-7.8226561!4d110.3989696!15sCh1LYW50b3IgUG9saXNpIEtvdGEgWW9neWFrYXJ0YZIBDnBvbGljZV9zdGF0aW9u4AEA!16s%2Fg%2F1tx1krnh?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1263,25 +1238,24 @@
       </c>
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr"/>
-      <c r="E22" t="inlineStr"/>
+      <c r="E22" t="n">
+        <v>5</v>
+      </c>
       <c r="F22" t="n">
-        <v>5</v>
+        <v>-7.801692</v>
       </c>
       <c r="G22" t="n">
-        <v>-7.801692</v>
-      </c>
-      <c r="H22" t="n">
         <v>110.369008</v>
       </c>
-      <c r="I22" t="b">
-        <v>0</v>
+      <c r="H22" t="b">
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pos+Polisi+Gondomanan+%EA%A7%8B%EA%A6%A5%EA%A6%BA%EA%A6%B4%EA%A6%B1%EA%A7%80%EA%A6%A5%EA%A6%BA%EA%A6%B4%EA%A6%AD%EA%A6%B6%EA%A6%B1%EA%A6%B6%EA%A6%92%EA%A6%A4%EA%A7%80%EA%A6%9D%EA%A6%A9%EA%A6%A4%EA%A6%A4%EA%A7%80/@-7.8226561,110.3268718,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Kota+Yogyakarta!3m6!1s0x2e7a5785cfd774d5:0x93ad45965f7630f5!8m2!3d-7.8016924!4d110.3690076!15sCh1LYW50b3IgUG9saXNpIEtvdGEgWW9neWFrYXJ0YZIBD3RyYWZmaWNfb2ZmaWNlcuABAA!16s%2Fg%2F11hbljbyrb?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J22" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pos+Polisi+Gondomanan+%EA%A7%8B%EA%A6%A5%EA%A6%BA%EA%A6%B4%EA%A6%B1%EA%A7%80%EA%A6%A5%EA%A6%BA%EA%A6%B4%EA%A6%AD%EA%A6%B6%EA%A6%B1%EA%A6%B6%EA%A6%92%EA%A6%A4%EA%A7%80%EA%A6%9D%EA%A6%A9%EA%A6%A4%EA%A6%A4%EA%A7%80/@-7.8226561,110.3268718,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Kota+Yogyakarta!3m6!1s0x2e7a5785cfd774d5:0x93ad45965f7630f5!8m2!3d-7.8016924!4d110.3690076!15sCh1LYW50b3IgUG9saXNpIEtvdGEgWW9neWFrYXJ0YZIBD3RyYWZmaWNfb2ZmaWNlcuABAA!16s%2Fg%2F11hbljbyrb?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K22" t="inlineStr">
         <is>
           <t>6 tahun lalu</t>
         </is>
@@ -1309,22 +1283,21 @@
         </is>
       </c>
       <c r="E23" t="inlineStr"/>
-      <c r="F23" t="inlineStr"/>
+      <c r="F23" t="n">
+        <v>-7.791655</v>
+      </c>
       <c r="G23" t="n">
-        <v>-7.791655</v>
-      </c>
-      <c r="H23" t="n">
         <v>110.386613</v>
       </c>
-      <c r="I23" t="b">
-        <v>0</v>
-      </c>
-      <c r="J23" t="inlineStr">
+      <c r="H23" t="b">
+        <v>0</v>
+      </c>
+      <c r="I23" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/%EA%A7%8B%EA%A6%A5%EA%A6%BA%EA%A6%B4%EA%A6%AD%EA%A7%80%EA%A6%B1%EA%A6%BA%EA%A6%8F%EA%A7%80%EA%A6%92%EA%A6%A4%EA%A7%80%EA%A6%9D%EA%A6%8F%EA%A6%B8%EA%A6%B1%EA%A6%B8%EA%A6%A9%EA%A6%A4%EA%A7%80+Polsek+Gondokusuman/@-7.8226561,110.3268718,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Kota+Yogyakarta!3m6!1s0x2e7aff587418d133:0x9138ae8f30b6aa20!8m2!3d-7.7916554!4d110.3866132!15sCh1LYW50b3IgUG9saXNpIEtvdGEgWW9neWFrYXJ0YZIBBnBvbGljZeABAA!16s%2Fg%2F1wnzc3h8?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1339,25 +1312,24 @@
       </c>
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr"/>
+      <c r="E24" t="n">
+        <v>5</v>
+      </c>
       <c r="F24" t="n">
-        <v>5</v>
+        <v>-7.803919</v>
       </c>
       <c r="G24" t="n">
-        <v>-7.803919</v>
-      </c>
-      <c r="H24" t="n">
         <v>110.373853</v>
       </c>
-      <c r="I24" t="b">
-        <v>0</v>
+      <c r="H24" t="b">
+        <v>0</v>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Denpom+Lanal+Yogyakarta+(+Polisi+Militer+Angkatan+Laut+)/@-7.8226561,110.3268718,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Kota+Yogyakarta!3m6!1s0x2e7a57b22f60ea97:0x83d229a85724fe8f!8m2!3d-7.8039185!4d110.3738531!15sCh1LYW50b3IgUG9saXNpIEtvdGEgWW9neWFrYXJ0YZIBDW1pbGl0YXJ5X2Jhc2XgAQA!16s%2Fg%2F11q1tcb3pg?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J24" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Denpom+Lanal+Yogyakarta+(+Polisi+Militer+Angkatan+Laut+)/@-7.8226561,110.3268718,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Kota+Yogyakarta!3m6!1s0x2e7a57b22f60ea97:0x83d229a85724fe8f!8m2!3d-7.8039185!4d110.3738531!15sCh1LYW50b3IgUG9saXNpIEtvdGEgWW9neWFrYXJ0YZIBDW1pbGl0YXJ5X2Jhc2XgAQA!16s%2Fg%2F11q1tcb3pg?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr">
         <is>
           <t>setahun lalu</t>
         </is>
@@ -1385,22 +1357,21 @@
         </is>
       </c>
       <c r="E25" t="inlineStr"/>
-      <c r="F25" t="inlineStr"/>
+      <c r="F25" t="n">
+        <v>-7.804991</v>
+      </c>
       <c r="G25" t="n">
-        <v>-7.804991</v>
-      </c>
-      <c r="H25" t="n">
         <v>110.350417</v>
       </c>
-      <c r="I25" t="b">
-        <v>0</v>
-      </c>
-      <c r="J25" t="inlineStr">
+      <c r="H25" t="b">
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Polsek+Wirobrajan/@-7.8049907,110.2783195,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Kota+Yogyakarta!3m6!1s0x2e7a57f385870037:0xb42ce4f876f757cf!8m2!3d-7.8049907!4d110.3504173!15sCh1LYW50b3IgUG9saXNpIEtvdGEgWW9neWFrYXJ0YZIBBnBvbGljZeABAA!16s%2Fg%2F1tfvwl0d?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1416,22 +1387,21 @@
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr"/>
-      <c r="F26" t="inlineStr"/>
+      <c r="F26" t="n">
+        <v>-7.805069</v>
+      </c>
       <c r="G26" t="n">
-        <v>-7.805069</v>
-      </c>
-      <c r="H26" t="n">
         <v>110.350759</v>
       </c>
-      <c r="I26" t="b">
-        <v>0</v>
-      </c>
-      <c r="J26" t="inlineStr">
+      <c r="H26" t="b">
+        <v>0</v>
+      </c>
+      <c r="I26" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Kepolisian+Negara+Republik+Indonesia/@-7.8049907,110.2783195,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Kota+Yogyakarta!3m6!1s0x2e7a57f24f162fed:0xd7e003a81f2afe0f!8m2!3d-7.8050694!4d110.3507586!15sCh1LYW50b3IgUG9saXNpIEtvdGEgWW9neWFrYXJ0YZIBBnBvbGljZeABAA!16s%2Fg%2F1hm4f9tc8?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1451,22 +1421,21 @@
       </c>
       <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr"/>
-      <c r="F27" t="inlineStr"/>
+      <c r="F27" t="n">
+        <v>-7.814283</v>
+      </c>
       <c r="G27" t="n">
-        <v>-7.814283</v>
-      </c>
-      <c r="H27" t="n">
         <v>110.368546</v>
       </c>
-      <c r="I27" t="b">
-        <v>0</v>
-      </c>
-      <c r="J27" t="inlineStr">
+      <c r="H27" t="b">
+        <v>0</v>
+      </c>
+      <c r="I27" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Pos+Polisi+Pojok+Beteng+Wetan/@-7.8049907,110.2783195,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Kota+Yogyakarta!3m6!1s0x2e7a5798459689fd:0x885dbb91b8dbdeef!8m2!3d-7.8142826!4d110.3685455!15sCh1LYW50b3IgUG9saXNpIEtvdGEgWW9neWFrYXJ0YZIBEXBvbGljZV9kZXBhcnRtZW504AEA!16s%2Fg%2F11cp08mwv8?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1482,22 +1451,21 @@
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr"/>
-      <c r="F28" t="inlineStr"/>
+      <c r="F28" t="n">
+        <v>-7.808529</v>
+      </c>
       <c r="G28" t="n">
-        <v>-7.808529</v>
-      </c>
-      <c r="H28" t="n">
         <v>110.357842</v>
       </c>
-      <c r="I28" t="b">
-        <v>0</v>
-      </c>
-      <c r="J28" t="inlineStr">
+      <c r="H28" t="b">
+        <v>0</v>
+      </c>
+      <c r="I28" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Kantor+Unit+Sabhara+Roda+4+Polresta+Yogyakarta/@-7.8049907,110.2783195,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Kota+Yogyakarta!3m6!1s0x2e7a579258f1c673:0x97cbbac1386aabdb!8m2!3d-7.8085294!4d110.3578418!15sCh1LYW50b3IgUG9saXNpIEtvdGEgWW9neWFrYXJ0YZIBEXBvbGljZV9kZXBhcnRtZW504AEA!16s%2Fg%2F11c42slp03?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1517,22 +1485,21 @@
       </c>
       <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr"/>
-      <c r="F29" t="inlineStr"/>
+      <c r="F29" t="n">
+        <v>-7.796269</v>
+      </c>
       <c r="G29" t="n">
-        <v>-7.796269</v>
-      </c>
-      <c r="H29" t="n">
         <v>110.36023</v>
       </c>
-      <c r="I29" t="b">
-        <v>0</v>
-      </c>
-      <c r="J29" t="inlineStr">
+      <c r="H29" t="b">
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Lapangan+Uji+Praktek+SIM+-+Polresta+Yogyakarta/@-7.8049907,110.2783195,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Kota+Yogyakarta!3m6!1s0x2e7a5820a936806b:0x8f6607a63ab3b446!8m2!3d-7.7962691!4d110.3602297!15sCh1LYW50b3IgUG9saXNpIEtvdGEgWW9neWFrYXJ0YZIBFnRyYWZmaWNfcG9saWNlX3N0YXRpb27gAQA!16s%2Fg%2F11dxh7xxky?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1555,25 +1522,24 @@
           <t>(0274) 2921211</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr"/>
+      <c r="E30" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F30" t="n">
-        <v>4.5</v>
+        <v>-7.796721</v>
       </c>
       <c r="G30" t="n">
-        <v>-7.796721</v>
-      </c>
-      <c r="H30" t="n">
         <v>110.359831</v>
       </c>
-      <c r="I30" t="b">
-        <v>0</v>
+      <c r="H30" t="b">
+        <v>0</v>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Satpas+SIM+Polres+Kota+Yogyakarta/@-7.8049907,110.2783195,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Kota+Yogyakarta!3m6!1s0x2e7a578a05b54acb:0x8d776091424f6288!8m2!3d-7.7967213!4d110.3598305!15sCh1LYW50b3IgUG9saXNpIEtvdGEgWW9neWFrYXJ0YVofIh1rYW50b3IgcG9saXNpIGtvdGEgeW9neWFrYXJ0YZIBFmRyaXZlcnNfbGljZW5zZV9vZmZpY2WaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVUlNNbU0yVG0xM1JSQULgAQD6AQQIRxAs!16s%2Fg%2F11g6h_v4tq?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J30" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Satpas+SIM+Polres+Kota+Yogyakarta/@-7.8049907,110.2783195,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Kota+Yogyakarta!3m6!1s0x2e7a578a05b54acb:0x8d776091424f6288!8m2!3d-7.7967213!4d110.3598305!15sCh1LYW50b3IgUG9saXNpIEtvdGEgWW9neWFrYXJ0YVofIh1rYW50b3IgcG9saXNpIGtvdGEgeW9neWFrYXJ0YZIBFmRyaXZlcnNfbGljZW5zZV9vZmZpY2WaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVUlNNbU0yVG0xM1JSQULgAQD6AQQIRxAs!16s%2Fg%2F11g6h_v4tq?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K30" t="inlineStr">
         <is>
           <t>1 hari lalu</t>
         </is>
@@ -1593,22 +1559,21 @@
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr"/>
       <c r="E31" t="inlineStr"/>
-      <c r="F31" t="inlineStr"/>
+      <c r="F31" t="n">
+        <v>-7.789816</v>
+      </c>
       <c r="G31" t="n">
-        <v>-7.789816</v>
-      </c>
-      <c r="H31" t="n">
         <v>110.36592</v>
       </c>
-      <c r="I31" t="b">
-        <v>0</v>
-      </c>
-      <c r="J31" t="inlineStr">
+      <c r="H31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I31" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/POS+Polisi+Jl+Pasar+Kembang/@-7.8049907,110.2783195,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Kota+Yogyakarta!3m6!1s0x2e7a5825f1894293:0xfac29ebfe5234402!8m2!3d-7.789816!4d110.3659195!15sCh1LYW50b3IgUG9saXNpIEtvdGEgWW9neWFrYXJ0YZIBEXBvbGljZV9kZXBhcnRtZW504AEA!16s%2Fg%2F11cm0kvx1r?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1628,22 +1593,21 @@
         </is>
       </c>
       <c r="E32" t="inlineStr"/>
-      <c r="F32" t="inlineStr"/>
+      <c r="F32" t="n">
+        <v>-7.799702</v>
+      </c>
       <c r="G32" t="n">
-        <v>-7.799702</v>
-      </c>
-      <c r="H32" t="n">
         <v>110.39058</v>
       </c>
-      <c r="I32" t="b">
-        <v>0</v>
-      </c>
-      <c r="J32" t="inlineStr">
+      <c r="H32" t="b">
+        <v>0</v>
+      </c>
+      <c r="I32" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Satpol+PP+Kota+Yogyakarta/@-7.7997019,110.3184819,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Kota+Yogyakarta!3m6!1s0x2e7a571deaf170cd:0xfceebc5095a27906!8m2!3d-7.7997019!4d110.3905797!15sCh1LYW50b3IgUG9saXNpIEtvdGEgWW9neWFrYXJ0YZIBDGNpdmlsX3BvbGljZeABAA!16s%2Fg%2F11gtz9m_66?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1663,22 +1627,21 @@
         </is>
       </c>
       <c r="E33" t="inlineStr"/>
-      <c r="F33" t="inlineStr"/>
+      <c r="F33" t="n">
+        <v>-7.80849</v>
+      </c>
       <c r="G33" t="n">
-        <v>-7.80849</v>
-      </c>
-      <c r="H33" t="n">
         <v>110.358016</v>
       </c>
-      <c r="I33" t="b">
-        <v>0</v>
-      </c>
-      <c r="J33" t="inlineStr">
+      <c r="H33" t="b">
+        <v>0</v>
+      </c>
+      <c r="I33" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Kantor+Polisi+Sektor+Kraton/@-7.8084898,110.2859186,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Kota+Yogyakarta!3m6!1s0x2e7a5792597762e5:0x46031adff033b15f!8m2!3d-7.8084898!4d110.3580164!15sCh1LYW50b3IgUG9saXNpIEtvdGEgWW9neWFrYXJ0YeABAA!16s%2Fg%2F11btm7nxrm?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1698,22 +1661,21 @@
         </is>
       </c>
       <c r="E34" t="inlineStr"/>
-      <c r="F34" t="inlineStr"/>
+      <c r="F34" t="n">
+        <v>-7.78307</v>
+      </c>
       <c r="G34" t="n">
-        <v>-7.78307</v>
-      </c>
-      <c r="H34" t="n">
         <v>110.359635</v>
       </c>
-      <c r="I34" t="b">
-        <v>0</v>
-      </c>
-      <c r="J34" t="inlineStr">
+      <c r="H34" t="b">
+        <v>0</v>
+      </c>
+      <c r="I34" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Kepolisian+Negara+Republik+Indonesia/@-7.8084898,110.2859186,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Kota+Yogyakarta!3m6!1s0x2e7a583c67ae8615:0x78f448748e4f57cb!8m2!3d-7.7830696!4d110.3596354!15sCh1LYW50b3IgUG9saXNpIEtvdGEgWW9neWFrYXJ0YZIBBnBvbGljZeABAA!16s%2Fg%2F1hm1wp5sp?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1733,22 +1695,21 @@
       </c>
       <c r="D35" t="inlineStr"/>
       <c r="E35" t="inlineStr"/>
-      <c r="F35" t="inlineStr"/>
+      <c r="F35" t="n">
+        <v>-7.800092</v>
+      </c>
       <c r="G35" t="n">
-        <v>-7.800092</v>
-      </c>
-      <c r="H35" t="n">
         <v>110.362464</v>
       </c>
-      <c r="I35" t="b">
-        <v>0</v>
-      </c>
-      <c r="J35" t="inlineStr">
+      <c r="H35" t="b">
+        <v>0</v>
+      </c>
+      <c r="I35" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Sat+Reskrim+dan+Narkoba/@-7.8084898,110.2859186,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Kota+Yogyakarta!3m6!1s0x2e7a578900b0ada7:0x7f9fe3612c5dba69!8m2!3d-7.8000918!4d110.3624642!15sCh1LYW50b3IgUG9saXNpIEtvdGEgWW9neWFrYXJ0YZIBDHN0YXRlX3BvbGljZeABAA!16s%2Fg%2F11qt498c_q?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1764,22 +1725,21 @@
       <c r="C36" t="inlineStr"/>
       <c r="D36" t="inlineStr"/>
       <c r="E36" t="inlineStr"/>
-      <c r="F36" t="inlineStr"/>
+      <c r="F36" t="n">
+        <v>-7.789484</v>
+      </c>
       <c r="G36" t="n">
-        <v>-7.789484</v>
-      </c>
-      <c r="H36" t="n">
         <v>110.357969</v>
       </c>
-      <c r="I36" t="b">
-        <v>0</v>
-      </c>
-      <c r="J36" t="inlineStr">
+      <c r="H36" t="b">
+        <v>0</v>
+      </c>
+      <c r="I36" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Pos+Polisi/@-7.8084898,110.2859186,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Kota+Yogyakarta!3m6!1s0x2e7a5822529bcbf5:0x60d0795eaa729583!8m2!3d-7.7894838!4d110.3579693!15sCh1LYW50b3IgUG9saXNpIEtvdGEgWW9neWFrYXJ0YZIBEXBvbGljZV9kZXBhcnRtZW504AEA!16s%2Fg%2F11cmzqtmct?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1795,22 +1755,21 @@
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr"/>
-      <c r="F37" t="inlineStr"/>
+      <c r="F37" t="n">
+        <v>-7.780441</v>
+      </c>
       <c r="G37" t="n">
-        <v>-7.780441</v>
-      </c>
-      <c r="H37" t="n">
         <v>110.37839</v>
       </c>
-      <c r="I37" t="b">
-        <v>0</v>
-      </c>
-      <c r="J37" t="inlineStr">
+      <c r="H37" t="b">
+        <v>0</v>
+      </c>
+      <c r="I37" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/kantor+polisi/@-7.8084898,110.2859186,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Kota+Yogyakarta!3m6!1s0x2e7a5900123f3f3d:0xd001866ec3a4382a!8m2!3d-7.7804411!4d110.3783902!15sCh1LYW50b3IgUG9saXNpIEtvdGEgWW9neWFrYXJ0YZIBCGhvc3BpdGFs4AEA!16s%2Fg%2F11y57c_6h1?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1834,22 +1793,21 @@
         </is>
       </c>
       <c r="E38" t="inlineStr"/>
-      <c r="F38" t="inlineStr"/>
+      <c r="F38" t="n">
+        <v>-7.783495</v>
+      </c>
       <c r="G38" t="n">
-        <v>-7.783495</v>
-      </c>
-      <c r="H38" t="n">
         <v>110.405824</v>
       </c>
-      <c r="I38" t="b">
-        <v>0</v>
-      </c>
-      <c r="J38" t="inlineStr">
+      <c r="H38" t="b">
+        <v>0</v>
+      </c>
+      <c r="I38" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Polsek+Depok+Barat/@-7.7834948,110.3337266,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Kota+Yogyakarta!3m6!1s0x2e7a59e8a023d623:0xee6b9b2fe90cd5cc!8m2!3d-7.7834948!4d110.4058244!15sCh1LYW50b3IgUG9saXNpIEtvdGEgWW9neWFrYXJ0YZIBDnBvbGljZV9zdGF0aW9u4AEA!16s%2Fg%2F1ptyzdsfc?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -1865,22 +1823,21 @@
       <c r="C39" t="inlineStr"/>
       <c r="D39" t="inlineStr"/>
       <c r="E39" t="inlineStr"/>
-      <c r="F39" t="inlineStr"/>
+      <c r="F39" t="n">
+        <v>-7.80818</v>
+      </c>
       <c r="G39" t="n">
-        <v>-7.80818</v>
-      </c>
-      <c r="H39" t="n">
         <v>110.36006</v>
       </c>
-      <c r="I39" t="b">
-        <v>0</v>
-      </c>
-      <c r="J39" t="inlineStr">
+      <c r="H39" t="b">
+        <v>0</v>
+      </c>
+      <c r="I39" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Pos+Polisi+Ngasem/@-7.8081802,110.2879625,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Kota+Yogyakarta!3m6!1s0x2e7a570745f446c5:0x58bd861e5ec6b3de!8m2!3d-7.8081802!4d110.3600603!15sCh1LYW50b3IgUG9saXNpIEtvdGEgWW9neWFrYXJ0YZIBD3RyYWZmaWNfb2ZmaWNlcuABAA!16s%2Fg%2F11kqh_fqpv?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -1896,22 +1853,21 @@
       <c r="C40" t="inlineStr"/>
       <c r="D40" t="inlineStr"/>
       <c r="E40" t="inlineStr"/>
-      <c r="F40" t="inlineStr"/>
+      <c r="F40" t="n">
+        <v>-7.799504</v>
+      </c>
       <c r="G40" t="n">
-        <v>-7.799504</v>
-      </c>
-      <c r="H40" t="n">
         <v>110.362619</v>
       </c>
-      <c r="I40" t="b">
-        <v>0</v>
-      </c>
-      <c r="J40" t="inlineStr">
+      <c r="H40" t="b">
+        <v>0</v>
+      </c>
+      <c r="I40" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Mapolresta+Yogyakarta/@-7.8081802,110.2879625,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Kota+Yogyakarta!3m6!1s0x2e7a57e7bbc36135:0x4f8015eebaa7da96!8m2!3d-7.7995039!4d110.3626194!15sCh1LYW50b3IgUG9saXNpIEtvdGEgWW9neWFrYXJ0YZIBDnBvbGljZV9hY2FkZW154AEA!16s%2Fg%2F11f9fq2x80?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -1927,22 +1883,21 @@
       <c r="C41" t="inlineStr"/>
       <c r="D41" t="inlineStr"/>
       <c r="E41" t="inlineStr"/>
-      <c r="F41" t="inlineStr"/>
+      <c r="F41" t="n">
+        <v>-7.790341</v>
+      </c>
       <c r="G41" t="n">
-        <v>-7.790341</v>
-      </c>
-      <c r="H41" t="n">
         <v>110.354129</v>
       </c>
-      <c r="I41" t="b">
-        <v>0</v>
-      </c>
-      <c r="J41" t="inlineStr">
+      <c r="H41" t="b">
+        <v>0</v>
+      </c>
+      <c r="I41" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Pos+Polisi+Simpang+BPK/@-7.8081802,110.2879625,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Kota+Yogyakarta!3m6!1s0x2e7a581897f38aef:0x2d5822bb7bce4472!8m2!3d-7.7903414!4d110.3541289!15sCh1LYW50b3IgUG9saXNpIEtvdGEgWW9neWFrYXJ0YZIBEXBvbGljZV9kZXBhcnRtZW504AEA!16s%2Fg%2F11cmzqtvr_?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -1958,22 +1913,21 @@
       <c r="C42" t="inlineStr"/>
       <c r="D42" t="inlineStr"/>
       <c r="E42" t="inlineStr"/>
-      <c r="F42" t="inlineStr"/>
+      <c r="F42" t="n">
+        <v>-7.822595</v>
+      </c>
       <c r="G42" t="n">
-        <v>-7.822595</v>
-      </c>
-      <c r="H42" t="n">
         <v>110.398606</v>
       </c>
-      <c r="I42" t="b">
-        <v>0</v>
-      </c>
-      <c r="J42" t="inlineStr">
+      <c r="H42" t="b">
+        <v>0</v>
+      </c>
+      <c r="I42" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Kantor+Polisi+Sektor+Kotagede%EA%A7%8B%EA%A6%8F%EA%A6%A4%EA%A7%80%EA%A6%A0%EA%A6%BA%EA%A6%B4%EA%A6%82%EA%A6%A5%EA%A6%BA%EA%A6%B4%EA%A6%AD%EA%A6%B6%EA%A6%B1%EA%A6%B6%EA%A6%B1%EA%A6%BA%EA%A6%8F%EA%A7%80%EA%A6%A0%EA%A6%BA%EA%A6%B4%EA%A6%82%EA%A6%8F%EA%A6%BA%EA%A6%B4%EA%A6%A0%EA%A6%92%EA%A6%BA%EA%A6%A3%EA%A6%BA/@-7.8225955,110.3265078,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Kota+Yogyakarta!3m6!1s0x2e7a5716e2d889cb:0xec38454e7c7075c9!8m2!3d-7.8225955!4d110.3986056!15sCh1LYW50b3IgUG9saXNpIEtvdGEgWW9neWFrYXJ0YZIBCmdvdmVybm1lbnTgAQA!16s%2Fg%2F1pv5v4tbm?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -1989,22 +1943,21 @@
       <c r="C43" t="inlineStr"/>
       <c r="D43" t="inlineStr"/>
       <c r="E43" t="inlineStr"/>
-      <c r="F43" t="inlineStr"/>
+      <c r="F43" t="n">
+        <v>-7.788025</v>
+      </c>
       <c r="G43" t="n">
-        <v>-7.788025</v>
-      </c>
-      <c r="H43" t="n">
         <v>110.359639</v>
       </c>
-      <c r="I43" t="b">
-        <v>0</v>
-      </c>
-      <c r="J43" t="inlineStr">
+      <c r="H43" t="b">
+        <v>0</v>
+      </c>
+      <c r="I43" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Ditlantas+Polda+DIY/@-7.7880249,110.2875408,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Kota+Yogyakarta!3m6!1s0x2e7a5823720266d5:0x4dfe2e7e5b1f3170!8m2!3d-7.7880249!4d110.3596386!15sCh1LYW50b3IgUG9saXNpIEtvdGEgWW9neWFrYXJ0YZIBFnRyYWZmaWNfcG9saWNlX3N0YXRpb27gAQA!16s%2Fg%2F1hm43_n9k?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -2024,22 +1977,21 @@
         </is>
       </c>
       <c r="E44" t="inlineStr"/>
-      <c r="F44" t="inlineStr"/>
+      <c r="F44" t="n">
+        <v>-7.783254</v>
+      </c>
       <c r="G44" t="n">
-        <v>-7.783254</v>
-      </c>
-      <c r="H44" t="n">
         <v>110.367175</v>
       </c>
-      <c r="I44" t="b">
-        <v>0</v>
-      </c>
-      <c r="J44" t="inlineStr">
+      <c r="H44" t="b">
+        <v>0</v>
+      </c>
+      <c r="I44" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Pos+Lantas+Yogyakara/@-7.7880249,110.2875408,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Kota+Yogyakarta!3m6!1s0x2e7a5830f7b47de9:0x8e971ff2c083c7ba!8m2!3d-7.7832537!4d110.3671751!15sCh1LYW50b3IgUG9saXNpIEtvdGEgWW9neWFrYXJ0YZIBDnBvbGljZV9zdGF0aW9u4AEA!16s%2Fg%2F11bbs2zsc3?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -2062,25 +2014,24 @@
           <t>(0274) 543920</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr"/>
+      <c r="E45" t="n">
+        <v>3.8</v>
+      </c>
       <c r="F45" t="n">
-        <v>3.8</v>
+        <v>-7.782705</v>
       </c>
       <c r="G45" t="n">
-        <v>-7.782705</v>
-      </c>
-      <c r="H45" t="n">
         <v>110.3606</v>
       </c>
-      <c r="I45" t="b">
-        <v>0</v>
+      <c r="H45" t="b">
+        <v>0</v>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pos+Polantas+Pingit/@-7.7880249,110.2875408,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Kota+Yogyakarta!3m6!1s0x2e7a583c789bb257:0x2f369f8b5cfeacf9!8m2!3d-7.7827052!4d110.3606003!15sCh1LYW50b3IgUG9saXNpIEtvdGEgWW9neWFrYXJ0YZIBD3RyYWZmaWNfb2ZmaWNlcuABAA!16s%2Fg%2F1hm39x_60?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J45" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pos+Polantas+Pingit/@-7.7880249,110.2875408,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Kota+Yogyakarta!3m6!1s0x2e7a583c789bb257:0x2f369f8b5cfeacf9!8m2!3d-7.7827052!4d110.3606003!15sCh1LYW50b3IgUG9saXNpIEtvdGEgWW9neWFrYXJ0YZIBD3RyYWZmaWNfb2ZmaWNlcuABAA!16s%2Fg%2F1hm39x_60?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K45" t="inlineStr">
         <is>
           <t>7 tahun lalu</t>
         </is>
@@ -2100,22 +2051,21 @@
       <c r="C46" t="inlineStr"/>
       <c r="D46" t="inlineStr"/>
       <c r="E46" t="inlineStr"/>
-      <c r="F46" t="inlineStr"/>
+      <c r="F46" t="n">
+        <v>-7.807767</v>
+      </c>
       <c r="G46" t="n">
-        <v>-7.807767</v>
-      </c>
-      <c r="H46" t="n">
         <v>110.350591</v>
       </c>
-      <c r="I46" t="b">
-        <v>0</v>
-      </c>
-      <c r="J46" t="inlineStr">
+      <c r="H46" t="b">
+        <v>0</v>
+      </c>
+      <c r="I46" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Pos+Polisi+Patangpuluhan/@-7.7880249,110.2875408,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Kota+Yogyakarta!3m6!1s0x2e7a57ed8dc6fb1f:0x68a4bbe1dabd869e!8m2!3d-7.8077669!4d110.3505914!15sCh1LYW50b3IgUG9saXNpIEtvdGEgWW9neWFrYXJ0YZIBEXBvbGljZV9kZXBhcnRtZW504AEA!16s%2Fg%2F1hm3vv_1v?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K46" t="inlineStr"/>
+      <c r="J46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -2139,22 +2089,21 @@
         </is>
       </c>
       <c r="E47" t="inlineStr"/>
-      <c r="F47" t="inlineStr"/>
+      <c r="F47" t="n">
+        <v>-7.783279</v>
+      </c>
       <c r="G47" t="n">
-        <v>-7.783279</v>
-      </c>
-      <c r="H47" t="n">
         <v>110.361436</v>
       </c>
-      <c r="I47" t="b">
-        <v>0</v>
-      </c>
-      <c r="J47" t="inlineStr">
+      <c r="H47" t="b">
+        <v>0</v>
+      </c>
+      <c r="I47" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Kantor+Unit+Satlantas+Turjawali/@-7.7880249,110.2875408,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Kota+Yogyakarta!3m6!1s0x2e7a583c786bf523:0x885788b155075cec!8m2!3d-7.7832793!4d110.3614363!15sCh1LYW50b3IgUG9saXNpIEtvdGEgWW9neWFrYXJ0YZIBFnRyYWZmaWNfcG9saWNlX3N0YXRpb27gAQA!16s%2Fg%2F11f126v2qb?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K47" t="inlineStr"/>
+      <c r="J47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -2170,22 +2119,21 @@
       <c r="C48" t="inlineStr"/>
       <c r="D48" t="inlineStr"/>
       <c r="E48" t="inlineStr"/>
-      <c r="F48" t="inlineStr"/>
+      <c r="F48" t="n">
+        <v>-7.778043</v>
+      </c>
       <c r="G48" t="n">
-        <v>-7.778043</v>
-      </c>
-      <c r="H48" t="n">
         <v>110.367566</v>
       </c>
-      <c r="I48" t="b">
-        <v>0</v>
-      </c>
-      <c r="J48" t="inlineStr">
+      <c r="H48" t="b">
+        <v>0</v>
+      </c>
+      <c r="I48" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Pos+Polisi+Jetis/@-7.7880249,110.2875408,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Kota+Yogyakarta!3m6!1s0x51aab363c1d4dc9:0x8207f2126deb4f60!8m2!3d-7.7780435!4d110.3675657!15sCh1LYW50b3IgUG9saXNpIEtvdGEgWW9neWFrYXJ0YZIBEXBvbGljZV9kZXBhcnRtZW504AEA!16s%2Fg%2F11b6tw4q9w?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -2201,22 +2149,21 @@
       <c r="C49" t="inlineStr"/>
       <c r="D49" t="inlineStr"/>
       <c r="E49" t="inlineStr"/>
-      <c r="F49" t="inlineStr"/>
+      <c r="F49" t="n">
+        <v>-7.801397</v>
+      </c>
       <c r="G49" t="n">
-        <v>-7.801397</v>
-      </c>
-      <c r="H49" t="n">
         <v>110.356349</v>
       </c>
-      <c r="I49" t="b">
-        <v>0</v>
-      </c>
-      <c r="J49" t="inlineStr">
+      <c r="H49" t="b">
+        <v>0</v>
+      </c>
+      <c r="I49" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Pos+Polisi+Ngabean/@-7.7880249,110.2875408,13z/data=!4m10!1m2!2m1!1sKantor+Polisi+Kota+Yogyakarta!3m6!1s0x2e7a578b6735f5fd:0x852b057aada66a1d!8m2!3d-7.8013968!4d110.3563488!15sCh1LYW50b3IgUG9saXNpIEtvdGEgWW9neWFrYXJ0YZIBBnBvbGljZeABAA!16s%2Fg%2F11bbyhtbp3?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K49" t="inlineStr"/>
+      <c r="J49" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
